--- a/data/trans_camb/P57_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Edad-trans_camb.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-2.612652768907979</v>
+        <v>-2.61265276890798</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.5718251731645391</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.196986269915074</v>
+        <v>-6.068887776398229</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.638626758215344</v>
+        <v>-3.850881100260921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.659025287094327</v>
+        <v>-3.884747536200302</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9352262952280838</v>
+        <v>1.132371260009763</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.890166973799856</v>
+        <v>5.132488090659841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.083932362224497</v>
+        <v>2.016826997090144</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.4339908245179261</v>
+        <v>-0.4339908245179263</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.08222765625507034</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8324330780493575</v>
+        <v>-0.8062398000756689</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4527539841985997</v>
+        <v>-0.4974323922225795</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5085034675476325</v>
+        <v>-0.522123323640712</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2381155892698</v>
+        <v>0.3980851492764532</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.092749176008289</v>
+        <v>1.022349235568221</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4190345620154847</v>
+        <v>0.3481751987089816</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.81573769241068</v>
+        <v>-9.229365644612471</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.672454642457303</v>
+        <v>-7.649972324811388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.026784442145242</v>
+        <v>-7.290411635491566</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2515824220626234</v>
+        <v>-0.4487532084795525</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.5042924153199809</v>
+        <v>-0.2506354385030619</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.655883639649009</v>
+        <v>-1.598323510503273</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6031403077542604</v>
+        <v>-0.6272911602394866</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5921447824978019</v>
+        <v>-0.5995706727269483</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5347844396326756</v>
+        <v>-0.5385778671257544</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.01971181921098101</v>
+        <v>-0.02411089988399563</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.03721834473172256</v>
+        <v>-0.01509297386961903</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1545791317718125</v>
+        <v>-0.1290161911889022</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>-5.93484624077105</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-6.409048434321371</v>
+        <v>-6.409048434321369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-6.173313462315083</v>
+        <v>-6.173313462315084</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.903746222384303</v>
+        <v>-9.485800097929459</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.809004430478392</v>
+        <v>-9.687346438532622</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.74715269608777</v>
+        <v>-8.485054043051457</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.55634519868636</v>
+        <v>-1.986435630299549</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.347557183464894</v>
+        <v>-3.362125628332539</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.888685078024341</v>
+        <v>-3.813779008992083</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>-0.4120900178498175</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.4620509019639764</v>
+        <v>-0.4620509019639763</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.4366619254388812</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5780966278784905</v>
+        <v>-0.5945573101251178</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6069043374631777</v>
+        <v>-0.5999874882825388</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5480182144945998</v>
+        <v>-0.545472206428363</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1814019769068874</v>
+        <v>-0.1605665106474226</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2690244146095361</v>
+        <v>-0.2607444394569601</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2919734183468016</v>
+        <v>-0.2974068801310079</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-15.50967196399237</v>
+        <v>-15.49302974564871</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.38295495119583</v>
+        <v>-10.63567425689861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.90838415951696</v>
+        <v>-11.64367875539414</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-7.187116047627977</v>
+        <v>-7.095542482268501</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.637369484909634</v>
+        <v>-2.688521988574556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.092137284928987</v>
+        <v>-5.905791954711227</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.5158035809152444</v>
+        <v>-0.5158035809152446</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.2986188729318013</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6313345287975817</v>
+        <v>-0.6385948895231102</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4219742339556179</v>
+        <v>-0.4257636834294125</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5002279664821384</v>
+        <v>-0.4856303585445221</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3641294283407738</v>
+        <v>-0.3683444927494463</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1366578223145389</v>
+        <v>-0.138398086954403</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.30221390206514</v>
+        <v>-0.2892350092432618</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>1.174395880807191</v>
+        <v>1.174395880807194</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-8.302358800664123</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.699751345160035</v>
+        <v>-3.699751345160029</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.663743912159376</v>
+        <v>-4.15753107702352</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-13.63091695659464</v>
+        <v>-13.02670396551382</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.477752993955296</v>
+        <v>-7.195630910317948</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.946588996464475</v>
+        <v>5.334432454002682</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.10869236322032</v>
+        <v>-2.98340782816994</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.4873531674196768</v>
+        <v>-0.09380459041596118</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.06001577269977774</v>
+        <v>0.06001577269977788</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>-0.2469579501661502</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1384109986660485</v>
+        <v>-0.1384109986660483</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1669279358874898</v>
+        <v>-0.1863640579219644</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3637704810151713</v>
+        <v>-0.3542603726856849</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2585652867518796</v>
+        <v>-0.2487769951335796</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3730899235605995</v>
+        <v>0.3158740663929703</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1018049242871692</v>
+        <v>-0.09966254492190016</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.02007626172454872</v>
+        <v>-0.004624526440804032</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-9.152979546275422</v>
+        <v>-9.152979546275427</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>-13.11190039091242</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-14.38927390687084</v>
+        <v>-14.74007485239819</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-18.58871851657658</v>
+        <v>-19.18742351506923</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-15.5202103125407</v>
+        <v>-15.45607448863908</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-3.576473289855691</v>
+        <v>-2.841310650288372</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-7.069064134487524</v>
+        <v>-7.413346099731815</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-7.101181139795738</v>
+        <v>-7.226411842960053</v>
       </c>
     </row>
     <row r="37">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>-0.3341713374123687</v>
+        <v>-0.3341713374123688</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.3444206746662558</v>
+        <v>-0.344420674666256</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.34293618949809</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4780874250310886</v>
+        <v>-0.4696236144657538</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4443572896312823</v>
+        <v>-0.4539583147304131</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4283971438440762</v>
+        <v>-0.4332726633753078</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1511138637507688</v>
+        <v>-0.1220386845672043</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.2079845990302487</v>
+        <v>-0.2219583978772215</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2305086027274591</v>
+        <v>-0.2439768178205505</v>
       </c>
     </row>
     <row r="40">
@@ -1203,10 +1203,10 @@
         <v>-10.1461033286496</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-14.33730006754064</v>
+        <v>-14.33730006754063</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-12.72673519769009</v>
+        <v>-12.72673519769008</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-16.68270216043579</v>
+        <v>-17.15276179975324</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-20.41828815629402</v>
+        <v>-20.94210246097537</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.57474153337897</v>
+        <v>-17.49248193580416</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-2.571975888787414</v>
+        <v>-3.081650294378122</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-7.623501509765227</v>
+        <v>-7.706707870638402</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-7.496817405104609</v>
+        <v>-8.020633236386335</v>
       </c>
     </row>
     <row r="43">
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>-0.2500546847647542</v>
+        <v>-0.2500546847647543</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.2936490338224434</v>
+        <v>-0.2936490338224433</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2792146111655093</v>
+        <v>-0.2792146111655091</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3723623806796283</v>
+        <v>-0.3799503883974966</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3841893981802466</v>
+        <v>-0.3940771202664999</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3543995048163021</v>
+        <v>-0.362773841622882</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.06876050927043063</v>
+        <v>-0.08317856399702463</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1744062233490742</v>
+        <v>-0.1786408124937849</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1730601257484794</v>
+        <v>-0.1905013037775696</v>
       </c>
     </row>
     <row r="46">
@@ -1309,10 +1309,10 @@
         <v>-5.122668540195255</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-6.175188067112561</v>
+        <v>-6.175188067112558</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-5.650301751988457</v>
+        <v>-5.650301751988454</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-7.018043121369602</v>
+        <v>-6.899821655173303</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-7.999037875291302</v>
+        <v>-7.970715411822502</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-6.936255734009094</v>
+        <v>-6.875942366048174</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-3.348223306718327</v>
+        <v>-3.27194112580638</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-4.442741291244319</v>
+        <v>-4.426875160246708</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-4.530428322653404</v>
+        <v>-4.338153619713433</v>
       </c>
     </row>
     <row r="49">
@@ -1360,10 +1360,10 @@
         <v>-0.2766102295085868</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.2631551724934517</v>
+        <v>-0.2631551724934516</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.268480808787009</v>
+        <v>-0.2684808087870089</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3564808188736405</v>
+        <v>-0.3534834662968328</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3249140815589721</v>
+        <v>-0.3267519987808269</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3193139738026058</v>
+        <v>-0.3174668131469693</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1897717260031792</v>
+        <v>-0.1865903772393836</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1964622554162805</v>
+        <v>-0.1965157066823114</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.222729234033664</v>
+        <v>-0.2150297491271899</v>
       </c>
     </row>
     <row r="52">
